--- a/src/test/java/com/CPM/qa/testData/CPMTestData.xlsx
+++ b/src/test/java/com/CPM/qa/testData/CPMTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8988" firstSheet="30" activeTab="34"/>
+    <workbookView xWindow="5760" yWindow="3396" windowWidth="17280" windowHeight="8988" firstSheet="34" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="TC_CPM_001" sheetId="1" r:id="rId1"/>
@@ -42,22 +42,23 @@
     <sheet name="TC_CPM_037" sheetId="56" r:id="rId33"/>
     <sheet name="TC_CPM_038" sheetId="58" r:id="rId34"/>
     <sheet name="TC_CPM_039" sheetId="59" r:id="rId35"/>
-    <sheet name="TC_CPM_086" sheetId="57" r:id="rId36"/>
-    <sheet name="TC_CPM_084" sheetId="55" r:id="rId37"/>
-    <sheet name="TC_CPM_083" sheetId="53" r:id="rId38"/>
-    <sheet name="TC_CPM_051" sheetId="37" r:id="rId39"/>
-    <sheet name="TC_CPM_052" sheetId="33" r:id="rId40"/>
-    <sheet name="TC_CPM_058" sheetId="34" r:id="rId41"/>
-    <sheet name="TC_CPM_066" sheetId="35" r:id="rId42"/>
-    <sheet name="TC_CPM_062" sheetId="36" r:id="rId43"/>
-    <sheet name="TC_CPM_074" sheetId="38" r:id="rId44"/>
-    <sheet name="TC_CPM_075" sheetId="48" r:id="rId45"/>
-    <sheet name="TC_CPM_076" sheetId="39" r:id="rId46"/>
-    <sheet name="TC_CPM_077" sheetId="40" r:id="rId47"/>
-    <sheet name="TC_CPM_078" sheetId="41" r:id="rId48"/>
-    <sheet name="TC_CPM_079" sheetId="49" r:id="rId49"/>
-    <sheet name="TC_CPM_080" sheetId="42" r:id="rId50"/>
-    <sheet name="TC_CPM_081" sheetId="44" r:id="rId51"/>
+    <sheet name="TC_CPM_040" sheetId="60" r:id="rId36"/>
+    <sheet name="TC_CPM_086" sheetId="57" r:id="rId37"/>
+    <sheet name="TC_CPM_084" sheetId="55" r:id="rId38"/>
+    <sheet name="TC_CPM_083" sheetId="53" r:id="rId39"/>
+    <sheet name="TC_CPM_051" sheetId="37" r:id="rId40"/>
+    <sheet name="TC_CPM_052" sheetId="33" r:id="rId41"/>
+    <sheet name="TC_CPM_058" sheetId="34" r:id="rId42"/>
+    <sheet name="TC_CPM_066" sheetId="35" r:id="rId43"/>
+    <sheet name="TC_CPM_062" sheetId="36" r:id="rId44"/>
+    <sheet name="TC_CPM_074" sheetId="38" r:id="rId45"/>
+    <sheet name="TC_CPM_075" sheetId="48" r:id="rId46"/>
+    <sheet name="TC_CPM_076" sheetId="39" r:id="rId47"/>
+    <sheet name="TC_CPM_077" sheetId="40" r:id="rId48"/>
+    <sheet name="TC_CPM_078" sheetId="41" r:id="rId49"/>
+    <sheet name="TC_CPM_079" sheetId="49" r:id="rId50"/>
+    <sheet name="TC_CPM_080" sheetId="42" r:id="rId51"/>
+    <sheet name="TC_CPM_081" sheetId="44" r:id="rId52"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2974" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2977" uniqueCount="271">
   <si>
     <t>Expected Title</t>
   </si>
@@ -876,6 +877,12 @@
   </si>
   <si>
     <t>The Reason For Leaving field is required</t>
+  </si>
+  <si>
+    <t>AnnualSalary</t>
+  </si>
+  <si>
+    <t>The Annual Salary field is required</t>
   </si>
 </sst>
 </file>
@@ -1267,7 +1274,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6093,7 +6100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -6123,6 +6130,39 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="34.109375" style="6" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" s="6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6189,7 +6229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -6259,7 +6299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -6305,7 +6345,68 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BA2"/>
   <sheetViews>
@@ -6646,68 +6747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AV2"/>
   <sheetViews>
@@ -7017,7 +7057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BE2"/>
   <sheetViews>
@@ -7381,7 +7421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BL2"/>
   <sheetViews>
@@ -7784,7 +7824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AX3"/>
   <sheetViews>
@@ -8255,7 +8295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV2"/>
   <sheetViews>
@@ -8718,7 +8758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BM2"/>
   <sheetViews>
@@ -9127,475 +9167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView topLeftCell="BC1" workbookViewId="0">
       <selection activeCell="BN1" sqref="BN1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData>
-    <row r="1" spans="1:74">
-      <c r="A1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="N1" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="P1" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="U1" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="V1" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="W1" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="X1" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y1" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="Z1" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA1" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="AB1" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="AC1" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="AD1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG1" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH1" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="AR1" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="AZ1" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="BA1" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="BB1" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="BC1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="BD1" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="BE1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="BF1" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="BG1" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="BH1" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="BI1" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="BJ1" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="BK1" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="BL1" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="BM1" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="BN1" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO1" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP1" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="BQ1" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74">
-      <c r="A2" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" s="6">
-        <v>7485236598</v>
-      </c>
-      <c r="N2" s="6">
-        <v>123456789</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="S2" s="6">
-        <v>987654323</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="W2" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="X2" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Z2" s="6">
-        <v>5263987451</v>
-      </c>
-      <c r="AA2" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AB2" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="AD2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AE2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AF2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AH2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AI2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AJ2" s="6">
-        <v>60000</v>
-      </c>
-      <c r="AK2" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="AM2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="AP2" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="AQ2" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="AR2" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AS2" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AU2" s="6">
-        <v>1200</v>
-      </c>
-      <c r="AV2" s="6">
-        <v>6589322454</v>
-      </c>
-      <c r="AW2" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="AX2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="AY2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="AZ2" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BA2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="BB2" s="6">
-        <v>5236988747</v>
-      </c>
-      <c r="BC2" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="BD2" s="6">
-        <v>96857412</v>
-      </c>
-      <c r="BE2" s="6">
-        <v>666666</v>
-      </c>
-      <c r="BF2" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="BG2" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="BI2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ2" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="BK2" s="6">
-        <v>5236988747</v>
-      </c>
-      <c r="BL2" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="BM2" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="BN2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="BO2" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="BP2" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="BR2" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="BS2" s="6">
-        <v>2012</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="BU2" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="BV2" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BV2"/>
-  <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
-      <selection sqref="A1:BV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10518,15 +10095,15 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BM2"/>
+  <dimension ref="A1:BV2"/>
   <sheetViews>
-    <sheetView topLeftCell="AT1" workbookViewId="0">
-      <selection activeCell="BM2" sqref="BM2"/>
+    <sheetView topLeftCell="BC1" workbookViewId="0">
+      <selection sqref="A1:BV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:65">
+    <row r="1" spans="1:74">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -10720,10 +10297,37 @@
         <v>192</v>
       </c>
       <c r="BM1" s="6" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="2" spans="1:65">
+        <v>201</v>
+      </c>
+      <c r="BN1" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="BO1" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP1" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="BQ1" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:74">
       <c r="A2" s="6" t="s">
         <v>39</v>
       </c>
@@ -10916,8 +10520,35 @@
       <c r="BL2" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="BM2" s="6" t="s">
-        <v>237</v>
+      <c r="BM2" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="BO2" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="BS2" s="6">
+        <v>2012</v>
+      </c>
+      <c r="BT2" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="BU2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="BV2" s="6" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -10988,6 +10619,415 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:BM2"/>
+  <sheetViews>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BM2" sqref="BM2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:65">
+      <c r="A1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="S1" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="X1" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y1" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="AA1" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="AD1" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AH1" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI1" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ1" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="AK1" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL1" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="AM1" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN1" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="AP1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY1" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="AZ1" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="BA1" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="BB1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="BC1" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD1" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE1" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="BF1" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="BG1" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH1" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="BI1" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="BJ1" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK1" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="BL1" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="BM1" s="6" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M2" s="6">
+        <v>7485236598</v>
+      </c>
+      <c r="N2" s="6">
+        <v>123456789</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="S2" s="6">
+        <v>987654323</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="V2" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="W2" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>5263987451</v>
+      </c>
+      <c r="AA2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB2" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="AC2" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="AD2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ2" s="6">
+        <v>60000</v>
+      </c>
+      <c r="AK2" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="AM2" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN2" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="AO2" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP2" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="AQ2" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="AR2" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS2" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AT2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU2" s="6">
+        <v>1200</v>
+      </c>
+      <c r="AV2" s="6">
+        <v>6589322454</v>
+      </c>
+      <c r="AW2" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="AX2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="AY2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="AZ2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BA2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BB2" s="6">
+        <v>5236988747</v>
+      </c>
+      <c r="BC2" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="BD2" s="6">
+        <v>96857412</v>
+      </c>
+      <c r="BE2" s="6">
+        <v>666666</v>
+      </c>
+      <c r="BF2" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="BG2" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="BH2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="BI2" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="BJ2" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="BK2" s="6">
+        <v>5236988747</v>
+      </c>
+      <c r="BL2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV2"/>
   <sheetViews>
     <sheetView topLeftCell="BC1" workbookViewId="0">
@@ -11449,7 +11489,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BV2"/>
   <sheetViews>
